--- a/po_analysis_by_asin/B0CW2D76QR_po_data.xlsx
+++ b/po_analysis_by_asin/B0CW2D76QR_po_data.xlsx
@@ -452,7 +452,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45348</v>
+        <v>45354.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>6</v>
@@ -460,7 +460,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45355</v>
+        <v>45361.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>40</v>
@@ -468,7 +468,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45369</v>
+        <v>45375.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
@@ -476,7 +476,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45383</v>
+        <v>45389.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -484,7 +484,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45390</v>
+        <v>45396.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>2</v>
@@ -492,7 +492,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45411</v>
+        <v>45417.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>8</v>
@@ -500,7 +500,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45418</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>6</v>
@@ -508,7 +508,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45425</v>
+        <v>45431.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>4</v>
@@ -516,7 +516,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45432</v>
+        <v>45438.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>8</v>
@@ -524,7 +524,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45439</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B11" t="n">
         <v>6</v>
@@ -532,7 +532,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45446</v>
+        <v>45452.99999999999</v>
       </c>
       <c r="B12" t="n">
         <v>20</v>
@@ -540,7 +540,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45460</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B13" t="n">
         <v>22</v>
@@ -548,7 +548,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45467</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B14" t="n">
         <v>12</v>
@@ -556,7 +556,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45481</v>
+        <v>45487.99999999999</v>
       </c>
       <c r="B15" t="n">
         <v>14</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45488</v>
+        <v>45494.99999999999</v>
       </c>
       <c r="B16" t="n">
         <v>12</v>
@@ -572,7 +572,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45495</v>
+        <v>45501.99999999999</v>
       </c>
       <c r="B17" t="n">
         <v>4</v>
@@ -580,7 +580,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45502</v>
+        <v>45508.99999999999</v>
       </c>
       <c r="B18" t="n">
         <v>88</v>
@@ -588,7 +588,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45509</v>
+        <v>45515.99999999999</v>
       </c>
       <c r="B19" t="n">
         <v>6</v>
@@ -596,7 +596,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45537</v>
+        <v>45543.99999999999</v>
       </c>
       <c r="B20" t="n">
         <v>2</v>
@@ -604,7 +604,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45572</v>
+        <v>45578.99999999999</v>
       </c>
       <c r="B21" t="n">
         <v>2</v>
@@ -612,7 +612,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45579</v>
+        <v>45585.99999999999</v>
       </c>
       <c r="B22" t="n">
         <v>2</v>
@@ -620,7 +620,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45600</v>
+        <v>45606.99999999999</v>
       </c>
       <c r="B23" t="n">
         <v>48</v>
@@ -628,7 +628,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45628</v>
+        <v>45634.99999999999</v>
       </c>
       <c r="B24" t="n">
         <v>54</v>
@@ -667,7 +667,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45323</v>
+        <v>45351.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>6</v>
@@ -675,7 +675,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45352</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>41</v>
@@ -683,7 +683,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45383</v>
+        <v>45412.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>6</v>
@@ -691,7 +691,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45413</v>
+        <v>45443.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>32</v>
@@ -699,7 +699,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45444</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>54</v>
@@ -707,7 +707,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45474</v>
+        <v>45504.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>78</v>
@@ -715,7 +715,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45505</v>
+        <v>45535.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>46</v>
@@ -723,7 +723,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45536</v>
+        <v>45565.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>2</v>
@@ -731,7 +731,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45566</v>
+        <v>45596.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
@@ -739,7 +739,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45597</v>
+        <v>45626.99999999999</v>
       </c>
       <c r="B11" t="n">
         <v>48</v>
@@ -747,7 +747,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45627</v>
+        <v>45657.99999999999</v>
       </c>
       <c r="B12" t="n">
         <v>54</v>

--- a/po_analysis_by_asin/B0CW2D76QR_po_data.xlsx
+++ b/po_analysis_by_asin/B0CW2D76QR_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -661,7 +662,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -751,6 +752,481 @@
       </c>
       <c r="B12" t="n">
         <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-20.69809425462256</v>
+      </c>
+      <c r="D2" t="n">
+        <v>32.66900038382212</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-18.71328976400946</v>
+      </c>
+      <c r="D3" t="n">
+        <v>34.03058759158448</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>7</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-18.65519148826692</v>
+      </c>
+      <c r="D4" t="n">
+        <v>33.00894182527389</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>9</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-16.19287692619292</v>
+      </c>
+      <c r="D5" t="n">
+        <v>35.38629251703927</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-17.70985541773679</v>
+      </c>
+      <c r="D6" t="n">
+        <v>35.29944309351595</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>11</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-12.2329218010709</v>
+      </c>
+      <c r="D7" t="n">
+        <v>38.09091248956442</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>12</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-15.49974378191732</v>
+      </c>
+      <c r="D8" t="n">
+        <v>36.56458672716339</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>12</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-12.62939106590607</v>
+      </c>
+      <c r="D9" t="n">
+        <v>38.97549038173011</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>13</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-12.68394994105923</v>
+      </c>
+      <c r="D10" t="n">
+        <v>38.53133991632953</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>14</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-11.79482354803515</v>
+      </c>
+      <c r="D11" t="n">
+        <v>38.0977300123448</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>14</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-10.12460743566958</v>
+      </c>
+      <c r="D12" t="n">
+        <v>40.16068951033957</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>16</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-9.83485232446562</v>
+      </c>
+      <c r="D13" t="n">
+        <v>42.74667929590973</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>16</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-8.290469450244728</v>
+      </c>
+      <c r="D14" t="n">
+        <v>44.49613360138262</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>17</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-7.05472334712988</v>
+      </c>
+      <c r="D15" t="n">
+        <v>44.09416768714909</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>18</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-9.4979813974264</v>
+      </c>
+      <c r="D16" t="n">
+        <v>41.53676493744047</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>19</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-6.214833353856172</v>
+      </c>
+      <c r="D17" t="n">
+        <v>43.44465330454558</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>19</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-7.718148553855489</v>
+      </c>
+      <c r="D18" t="n">
+        <v>42.81040198142225</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>20</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-5.941160342244919</v>
+      </c>
+      <c r="D19" t="n">
+        <v>46.14373275515684</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>22</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-1.730924932663882</v>
+      </c>
+      <c r="D20" t="n">
+        <v>47.93782354184591</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>26</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-0.3173594224663284</v>
+      </c>
+      <c r="D21" t="n">
+        <v>49.32858980400173</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>26</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.3505000201405808</v>
+      </c>
+      <c r="D22" t="n">
+        <v>52.08264221853875</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>28</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.774829029442369</v>
+      </c>
+      <c r="D23" t="n">
+        <v>55.37929238564558</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>30</v>
+      </c>
+      <c r="C24" t="n">
+        <v>5.84372305284962</v>
+      </c>
+      <c r="D24" t="n">
+        <v>55.84413267084251</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>31</v>
+      </c>
+      <c r="C25" t="n">
+        <v>6.969054057848395</v>
+      </c>
+      <c r="D25" t="n">
+        <v>54.6794552907532</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>32</v>
+      </c>
+      <c r="C26" t="n">
+        <v>5.665284879289796</v>
+      </c>
+      <c r="D26" t="n">
+        <v>58.82771623704178</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>32</v>
+      </c>
+      <c r="C27" t="n">
+        <v>5.678460292573053</v>
+      </c>
+      <c r="D27" t="n">
+        <v>57.91531124365638</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>33</v>
+      </c>
+      <c r="C28" t="n">
+        <v>8.793366434890293</v>
+      </c>
+      <c r="D28" t="n">
+        <v>58.98724103723869</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>34</v>
+      </c>
+      <c r="C29" t="n">
+        <v>8.452096523622505</v>
+      </c>
+      <c r="D29" t="n">
+        <v>59.63275629215116</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>34</v>
+      </c>
+      <c r="C30" t="n">
+        <v>9.324734872345893</v>
+      </c>
+      <c r="D30" t="n">
+        <v>59.17304874452327</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45683.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>35</v>
+      </c>
+      <c r="C31" t="n">
+        <v>9.461149311870404</v>
+      </c>
+      <c r="D31" t="n">
+        <v>59.78022319504099</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45690.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>35</v>
+      </c>
+      <c r="C32" t="n">
+        <v>11.18127552724051</v>
+      </c>
+      <c r="D32" t="n">
+        <v>60.96498032340661</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0CW2D76QR_po_data.xlsx
+++ b/po_analysis_by_asin/B0CW2D76QR_po_data.xlsx
@@ -765,7 +765,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -784,16 +784,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -802,12 +792,6 @@
       <c r="B2" t="n">
         <v>6</v>
       </c>
-      <c r="C2" t="n">
-        <v>-20.69809425462256</v>
-      </c>
-      <c r="D2" t="n">
-        <v>32.66900038382212</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -816,12 +800,6 @@
       <c r="B3" t="n">
         <v>6</v>
       </c>
-      <c r="C3" t="n">
-        <v>-18.71328976400946</v>
-      </c>
-      <c r="D3" t="n">
-        <v>34.03058759158448</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -830,12 +808,6 @@
       <c r="B4" t="n">
         <v>7</v>
       </c>
-      <c r="C4" t="n">
-        <v>-18.65519148826692</v>
-      </c>
-      <c r="D4" t="n">
-        <v>33.00894182527389</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -844,12 +816,6 @@
       <c r="B5" t="n">
         <v>9</v>
       </c>
-      <c r="C5" t="n">
-        <v>-16.19287692619292</v>
-      </c>
-      <c r="D5" t="n">
-        <v>35.38629251703927</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -858,12 +824,6 @@
       <c r="B6" t="n">
         <v>9</v>
       </c>
-      <c r="C6" t="n">
-        <v>-17.70985541773679</v>
-      </c>
-      <c r="D6" t="n">
-        <v>35.29944309351595</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -872,12 +832,6 @@
       <c r="B7" t="n">
         <v>11</v>
       </c>
-      <c r="C7" t="n">
-        <v>-12.2329218010709</v>
-      </c>
-      <c r="D7" t="n">
-        <v>38.09091248956442</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -886,12 +840,6 @@
       <c r="B8" t="n">
         <v>12</v>
       </c>
-      <c r="C8" t="n">
-        <v>-15.49974378191732</v>
-      </c>
-      <c r="D8" t="n">
-        <v>36.56458672716339</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -900,12 +848,6 @@
       <c r="B9" t="n">
         <v>12</v>
       </c>
-      <c r="C9" t="n">
-        <v>-12.62939106590607</v>
-      </c>
-      <c r="D9" t="n">
-        <v>38.97549038173011</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -914,12 +856,6 @@
       <c r="B10" t="n">
         <v>13</v>
       </c>
-      <c r="C10" t="n">
-        <v>-12.68394994105923</v>
-      </c>
-      <c r="D10" t="n">
-        <v>38.53133991632953</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -928,12 +864,6 @@
       <c r="B11" t="n">
         <v>14</v>
       </c>
-      <c r="C11" t="n">
-        <v>-11.79482354803515</v>
-      </c>
-      <c r="D11" t="n">
-        <v>38.0977300123448</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -942,12 +872,6 @@
       <c r="B12" t="n">
         <v>14</v>
       </c>
-      <c r="C12" t="n">
-        <v>-10.12460743566958</v>
-      </c>
-      <c r="D12" t="n">
-        <v>40.16068951033957</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -956,12 +880,6 @@
       <c r="B13" t="n">
         <v>16</v>
       </c>
-      <c r="C13" t="n">
-        <v>-9.83485232446562</v>
-      </c>
-      <c r="D13" t="n">
-        <v>42.74667929590973</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -970,12 +888,6 @@
       <c r="B14" t="n">
         <v>16</v>
       </c>
-      <c r="C14" t="n">
-        <v>-8.290469450244728</v>
-      </c>
-      <c r="D14" t="n">
-        <v>44.49613360138262</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -984,12 +896,6 @@
       <c r="B15" t="n">
         <v>17</v>
       </c>
-      <c r="C15" t="n">
-        <v>-7.05472334712988</v>
-      </c>
-      <c r="D15" t="n">
-        <v>44.09416768714909</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -998,12 +904,6 @@
       <c r="B16" t="n">
         <v>18</v>
       </c>
-      <c r="C16" t="n">
-        <v>-9.4979813974264</v>
-      </c>
-      <c r="D16" t="n">
-        <v>41.53676493744047</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1012,12 +912,6 @@
       <c r="B17" t="n">
         <v>19</v>
       </c>
-      <c r="C17" t="n">
-        <v>-6.214833353856172</v>
-      </c>
-      <c r="D17" t="n">
-        <v>43.44465330454558</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1026,12 +920,6 @@
       <c r="B18" t="n">
         <v>19</v>
       </c>
-      <c r="C18" t="n">
-        <v>-7.718148553855489</v>
-      </c>
-      <c r="D18" t="n">
-        <v>42.81040198142225</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1040,12 +928,6 @@
       <c r="B19" t="n">
         <v>20</v>
       </c>
-      <c r="C19" t="n">
-        <v>-5.941160342244919</v>
-      </c>
-      <c r="D19" t="n">
-        <v>46.14373275515684</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1054,12 +936,6 @@
       <c r="B20" t="n">
         <v>22</v>
       </c>
-      <c r="C20" t="n">
-        <v>-1.730924932663882</v>
-      </c>
-      <c r="D20" t="n">
-        <v>47.93782354184591</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1068,12 +944,6 @@
       <c r="B21" t="n">
         <v>26</v>
       </c>
-      <c r="C21" t="n">
-        <v>-0.3173594224663284</v>
-      </c>
-      <c r="D21" t="n">
-        <v>49.32858980400173</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1082,12 +952,6 @@
       <c r="B22" t="n">
         <v>26</v>
       </c>
-      <c r="C22" t="n">
-        <v>-0.3505000201405808</v>
-      </c>
-      <c r="D22" t="n">
-        <v>52.08264221853875</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1096,12 +960,6 @@
       <c r="B23" t="n">
         <v>28</v>
       </c>
-      <c r="C23" t="n">
-        <v>1.774829029442369</v>
-      </c>
-      <c r="D23" t="n">
-        <v>55.37929238564558</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1110,12 +968,6 @@
       <c r="B24" t="n">
         <v>30</v>
       </c>
-      <c r="C24" t="n">
-        <v>5.84372305284962</v>
-      </c>
-      <c r="D24" t="n">
-        <v>55.84413267084251</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1124,12 +976,6 @@
       <c r="B25" t="n">
         <v>31</v>
       </c>
-      <c r="C25" t="n">
-        <v>6.969054057848395</v>
-      </c>
-      <c r="D25" t="n">
-        <v>54.6794552907532</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1138,12 +984,6 @@
       <c r="B26" t="n">
         <v>32</v>
       </c>
-      <c r="C26" t="n">
-        <v>5.665284879289796</v>
-      </c>
-      <c r="D26" t="n">
-        <v>58.82771623704178</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1152,12 +992,6 @@
       <c r="B27" t="n">
         <v>32</v>
       </c>
-      <c r="C27" t="n">
-        <v>5.678460292573053</v>
-      </c>
-      <c r="D27" t="n">
-        <v>57.91531124365638</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1166,12 +1000,6 @@
       <c r="B28" t="n">
         <v>33</v>
       </c>
-      <c r="C28" t="n">
-        <v>8.793366434890293</v>
-      </c>
-      <c r="D28" t="n">
-        <v>58.98724103723869</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1180,12 +1008,6 @@
       <c r="B29" t="n">
         <v>34</v>
       </c>
-      <c r="C29" t="n">
-        <v>8.452096523622505</v>
-      </c>
-      <c r="D29" t="n">
-        <v>59.63275629215116</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1194,12 +1016,6 @@
       <c r="B30" t="n">
         <v>34</v>
       </c>
-      <c r="C30" t="n">
-        <v>9.324734872345893</v>
-      </c>
-      <c r="D30" t="n">
-        <v>59.17304874452327</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1208,12 +1024,6 @@
       <c r="B31" t="n">
         <v>35</v>
       </c>
-      <c r="C31" t="n">
-        <v>9.461149311870404</v>
-      </c>
-      <c r="D31" t="n">
-        <v>59.78022319504099</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1221,12 +1031,6 @@
       </c>
       <c r="B32" t="n">
         <v>35</v>
-      </c>
-      <c r="C32" t="n">
-        <v>11.18127552724051</v>
-      </c>
-      <c r="D32" t="n">
-        <v>60.96498032340661</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0CW2D76QR_po_data.xlsx
+++ b/po_analysis_by_asin/B0CW2D76QR_po_data.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,6 +635,22 @@
         <v>54</v>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -646,7 +662,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -754,6 +770,14 @@
         <v>54</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45688.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -765,7 +789,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -790,7 +814,7 @@
         <v>45354.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -798,7 +822,7 @@
         <v>45361.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -806,7 +830,7 @@
         <v>45375.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -814,7 +838,7 @@
         <v>45389.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -822,7 +846,7 @@
         <v>45396.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
@@ -830,7 +854,7 @@
         <v>45417.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
@@ -846,7 +870,7 @@
         <v>45431.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10">
@@ -878,7 +902,7 @@
         <v>45466.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
@@ -886,7 +910,7 @@
         <v>45473.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
@@ -894,7 +918,7 @@
         <v>45487.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16">
@@ -902,7 +926,7 @@
         <v>45494.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17">
@@ -910,7 +934,7 @@
         <v>45501.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18">
@@ -918,7 +942,7 @@
         <v>45508.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19">
@@ -926,7 +950,7 @@
         <v>45515.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
@@ -934,7 +958,7 @@
         <v>45543.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21">
@@ -942,7 +966,7 @@
         <v>45578.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22">
@@ -950,7 +974,7 @@
         <v>45585.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23">
@@ -958,7 +982,7 @@
         <v>45606.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24">
@@ -966,71 +990,87 @@
         <v>45634.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45641.99999999999</v>
+        <v>45662.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45648.99999999999</v>
+        <v>45669.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45655.99999999999</v>
+        <v>45676.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45662.99999999999</v>
+        <v>45683.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45669.99999999999</v>
+        <v>45690.99999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45676.99999999999</v>
+        <v>45697.99999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45683.99999999999</v>
+        <v>45704.99999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45690.99999999999</v>
+        <v>45711.99999999999</v>
       </c>
       <c r="B32" t="n">
-        <v>35</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45718.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45725.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
